--- a/biology/Zoologie/Fecenia_protensa/Fecenia_protensa.xlsx
+++ b/biology/Zoologie/Fecenia_protensa/Fecenia_protensa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fecenia protensa est une espèce d'araignées aranéomorphes de la famille des Psechridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fecenia protensa est une espèce d'araignées aranéomorphes de la famille des Psechridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sri Lanka, en Inde au Kerala et aux îles Nicobar, au Népal, en Thaïlande, au Viêt Nam, en Malaisie, à Singapour, au Brunei et en Indonésie à Sumatra, au Kalimantan et à Bali[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sri Lanka, en Inde au Kerala et aux îles Nicobar, au Népal, en Thaïlande, au Viêt Nam, en Malaisie, à Singapour, au Brunei et en Indonésie à Sumatra, au Kalimantan et à Bali,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des mâles mesurent de 3,1 à 4,4 mm de long sur de 2,1 à 3,0 mm de large, l'abdomen de 4,1 à 6,4 mm de long sur de 1,6 à 2,65 mm de large. La carapace des femelles mesurent de 3,3 à 5,9 mm de long sur de 1,9 à 4,0 mm de large, l'abdomen de 5,5 à 12,3 mm de long sur de 2,4 à 5,4 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des mâles mesurent de 3,1 à 4,4 mm de long sur de 2,1 à 3,0 mm de large, l'abdomen de 4,1 à 6,4 mm de long sur de 1,6 à 2,65 mm de large. La carapace des femelles mesurent de 3,3 à 5,9 mm de long sur de 1,9 à 4,0 mm de large, l'abdomen de 5,5 à 12,3 mm de long sur de 2,4 à 5,4 mm de large.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Thorell en 1891.
-Fecenia sumatrana[3] et Psechrus nicobarensis[4] ont été placées en synonymie par Bayer en 2011[2].
-Fecenia travancoria[5] a été placée en synonymie par Malamel, Pradeep et Sebastian en 2013[6].
+Fecenia sumatrana et Psechrus nicobarensis ont été placées en synonymie par Bayer en 2011.
+Fecenia travancoria a été placée en synonymie par Malamel, Pradeep et Sebastian en 2013.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1891 : « Spindlar från Nikobarerna och andra delar af södra Asien. » Kongliga Svenska Vetenskaps-Akademeins Handlingar, vol. 24, no 2, p. 1-149 (texte intégral).</t>
         </is>
